--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Vtn-Tnfrsf11b.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>Tnfrsf11b</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -531,22 +528,22 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H2">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I2">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J2">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,22 +558,22 @@
         <v>6.933894</v>
       </c>
       <c r="O2">
-        <v>0.8122763614007963</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P2">
-        <v>0.8638687058964239</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q2">
-        <v>14.33367941959067</v>
+        <v>3.330547289395335</v>
       </c>
       <c r="R2">
-        <v>129.003114776316</v>
+        <v>29.97492560455801</v>
       </c>
       <c r="S2">
-        <v>0.04241293328280825</v>
+        <v>0.1073843838352073</v>
       </c>
       <c r="T2">
-        <v>0.06398012511129554</v>
+        <v>0.1211715628414374</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>6.201571333333333</v>
+        <v>1.440985666666667</v>
       </c>
       <c r="H3">
-        <v>18.604714</v>
+        <v>4.322957000000001</v>
       </c>
       <c r="I3">
-        <v>0.05221490529364391</v>
+        <v>0.1098365531732288</v>
       </c>
       <c r="J3">
-        <v>0.07406232529850043</v>
+        <v>0.1230162332390494</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>0.3333333333333333</v>
+        <v>0.5</v>
       </c>
       <c r="M3">
-        <v>0.02434666666666667</v>
+        <v>0.0527795</v>
       </c>
       <c r="N3">
-        <v>0.07303999999999999</v>
+        <v>0.105559</v>
       </c>
       <c r="O3">
-        <v>0.008556327142686945</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P3">
-        <v>0.009099788701510982</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q3">
-        <v>0.1509875900622222</v>
+        <v>0.07605450299383335</v>
       </c>
       <c r="R3">
-        <v>1.35888831056</v>
+        <v>0.4563270179630001</v>
       </c>
       <c r="S3">
-        <v>0.0004467678114168336</v>
+        <v>0.00245216933802146</v>
       </c>
       <c r="T3">
-        <v>0.0006739515109589252</v>
+        <v>0.001844670397611975</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -652,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>6.201571333333333</v>
+        <v>7.461641333333333</v>
       </c>
       <c r="H4">
-        <v>18.604714</v>
+        <v>22.384924</v>
       </c>
       <c r="I4">
-        <v>0.05221490529364391</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J4">
-        <v>0.07406232529850043</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.5098130000000001</v>
+        <v>2.311298</v>
       </c>
       <c r="N4">
-        <v>1.019626</v>
+        <v>6.933894</v>
       </c>
       <c r="O4">
-        <v>0.1791673114565167</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P4">
-        <v>0.1270315054020652</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q4">
-        <v>3.161641686160667</v>
+        <v>17.24607669045067</v>
       </c>
       <c r="R4">
-        <v>18.969850116964</v>
+        <v>155.214690214056</v>
       </c>
       <c r="S4">
-        <v>0.009355204199418821</v>
+        <v>0.5560525517459332</v>
       </c>
       <c r="T4">
-        <v>0.009408248676245966</v>
+        <v>0.6274446461454045</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,45 +726,45 @@
         <v>22.384924</v>
       </c>
       <c r="I5">
-        <v>0.06282422221945559</v>
+        <v>0.5687502547919595</v>
       </c>
       <c r="J5">
-        <v>0.0891107233935555</v>
+        <v>0.6369966279614609</v>
       </c>
       <c r="K5">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M5">
-        <v>2.311298</v>
+        <v>0.0527795</v>
       </c>
       <c r="N5">
-        <v>6.933894</v>
+        <v>0.105559</v>
       </c>
       <c r="O5">
-        <v>0.8122763614007963</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P5">
-        <v>0.8638687058964239</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q5">
-        <v>17.24607669045067</v>
+        <v>0.3938216987526666</v>
       </c>
       <c r="R5">
-        <v>155.214690214056</v>
+        <v>2.362930192516</v>
       </c>
       <c r="S5">
-        <v>0.05103063063225444</v>
+        <v>0.01269770304602629</v>
       </c>
       <c r="T5">
-        <v>0.07697996529948498</v>
+        <v>0.009551981816056425</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>4.2167365</v>
+      </c>
+      <c r="H6">
+        <v>8.433472999999999</v>
+      </c>
+      <c r="I6">
+        <v>0.3214131920348118</v>
+      </c>
+      <c r="J6">
+        <v>0.2399871387994896</v>
+      </c>
+      <c r="K6">
         <v>3</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>7.461641333333333</v>
-      </c>
-      <c r="H6">
-        <v>22.384924</v>
-      </c>
-      <c r="I6">
-        <v>0.06282422221945559</v>
-      </c>
-      <c r="J6">
-        <v>0.0891107233935555</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.02434666666666667</v>
+        <v>2.311298</v>
       </c>
       <c r="N6">
-        <v>0.07303999999999999</v>
+        <v>6.933894</v>
       </c>
       <c r="O6">
-        <v>0.008556327142686945</v>
+        <v>0.9776743782722859</v>
       </c>
       <c r="P6">
-        <v>0.009099788701510982</v>
+        <v>0.9850046587426607</v>
       </c>
       <c r="Q6">
-        <v>0.1816660943288889</v>
+        <v>9.746134638977001</v>
       </c>
       <c r="R6">
-        <v>1.63499484896</v>
+        <v>58.476807833862</v>
       </c>
       <c r="S6">
-        <v>0.0005375445977945241</v>
+        <v>0.3142374426911455</v>
       </c>
       <c r="T6">
-        <v>0.0008108887539201466</v>
+        <v>0.2363884497558188</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -841,238 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>7.461641333333333</v>
+        <v>4.2167365</v>
       </c>
       <c r="H7">
-        <v>22.384924</v>
+        <v>8.433472999999999</v>
       </c>
       <c r="I7">
-        <v>0.06282422221945559</v>
+        <v>0.3214131920348118</v>
       </c>
       <c r="J7">
-        <v>0.0891107233935555</v>
+        <v>0.2399871387994896</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="M7">
-        <v>0.5098130000000001</v>
+        <v>0.0527795</v>
       </c>
       <c r="N7">
-        <v>1.019626</v>
+        <v>0.105559</v>
       </c>
       <c r="O7">
-        <v>0.1791673114565167</v>
+        <v>0.02232562172771408</v>
       </c>
       <c r="P7">
-        <v>0.1270315054020652</v>
+        <v>0.01499534125733917</v>
       </c>
       <c r="Q7">
-        <v>3.804041753070667</v>
+        <v>0.22255724410175</v>
       </c>
       <c r="R7">
-        <v>22.824250518424</v>
+        <v>0.8902289764069999</v>
       </c>
       <c r="S7">
-        <v>0.01125604698940662</v>
+        <v>0.007175749343666333</v>
       </c>
       <c r="T7">
-        <v>0.01131986934015038</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>105.106922</v>
-      </c>
-      <c r="H8">
-        <v>210.213844</v>
-      </c>
-      <c r="I8">
-        <v>0.8849608724869005</v>
-      </c>
-      <c r="J8">
-        <v>0.836826951307944</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>2.311298</v>
-      </c>
-      <c r="N8">
-        <v>6.933894</v>
-      </c>
-      <c r="O8">
-        <v>0.8122763614007963</v>
-      </c>
-      <c r="P8">
-        <v>0.8638687058964239</v>
-      </c>
-      <c r="Q8">
-        <v>242.933418604756</v>
-      </c>
-      <c r="R8">
-        <v>1457.600511628536</v>
-      </c>
-      <c r="S8">
-        <v>0.7188327974857336</v>
-      </c>
-      <c r="T8">
-        <v>0.7229086154856434</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>105.106922</v>
-      </c>
-      <c r="H9">
-        <v>210.213844</v>
-      </c>
-      <c r="I9">
-        <v>0.8849608724869005</v>
-      </c>
-      <c r="J9">
-        <v>0.836826951307944</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.02434666666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.07303999999999999</v>
-      </c>
-      <c r="O9">
-        <v>0.008556327142686945</v>
-      </c>
-      <c r="P9">
-        <v>0.009099788701510982</v>
-      </c>
-      <c r="Q9">
-        <v>2.559003194293333</v>
-      </c>
-      <c r="R9">
-        <v>15.35401916576</v>
-      </c>
-      <c r="S9">
-        <v>0.007572014733475587</v>
-      </c>
-      <c r="T9">
-        <v>0.00761494843663191</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>105.106922</v>
-      </c>
-      <c r="H10">
-        <v>210.213844</v>
-      </c>
-      <c r="I10">
-        <v>0.8849608724869005</v>
-      </c>
-      <c r="J10">
-        <v>0.836826951307944</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.5098130000000001</v>
-      </c>
-      <c r="N10">
-        <v>1.019626</v>
-      </c>
-      <c r="O10">
-        <v>0.1791673114565167</v>
-      </c>
-      <c r="P10">
-        <v>0.1270315054020652</v>
-      </c>
-      <c r="Q10">
-        <v>53.584875225586</v>
-      </c>
-      <c r="R10">
-        <v>214.339500902344</v>
-      </c>
-      <c r="S10">
-        <v>0.1585560602676913</v>
-      </c>
-      <c r="T10">
-        <v>0.1063033873856688</v>
+        <v>0.003598689043670768</v>
       </c>
     </row>
   </sheetData>
